--- a/analytikI/lety.xlsx
+++ b/analytikI/lety.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Lety" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,12 +439,12 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Pocet pasazierov</t>
+          <t>Pocet_pasazierov</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Typ lietadla</t>
+          <t>Typ_lietadla</t>
         </is>
       </c>
     </row>
@@ -469,7 +469,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Airbus A320</t>
+          <t>Airbus</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Airbus A320</t>
+          <t>Airbus</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Boeing 737</t>
+          <t>Boeing</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Boeing 737</t>
+          <t>Airbus</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Boeing 737</t>
+          <t>Boeing</t>
         </is>
       </c>
     </row>

--- a/analytikI/lety.xlsx
+++ b/analytikI/lety.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Lety" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,27 +424,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Cislo</t>
+          <t>cislo</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Odlet</t>
+          <t>odlet</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Ciel</t>
+          <t>ciel</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Pocet_pasazierov</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Typ_lietadla</t>
+          <t>pocet_pasazierov</t>
         </is>
       </c>
     </row>
@@ -467,11 +462,6 @@
       <c r="D2" t="n">
         <v>150</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Airbus</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -492,11 +482,6 @@
       <c r="D3" t="n">
         <v>200</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Airbus</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -517,11 +502,6 @@
       <c r="D4" t="n">
         <v>180</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Boeing</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -542,11 +522,6 @@
       <c r="D5" t="n">
         <v>220</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Airbus</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -566,11 +541,6 @@
       </c>
       <c r="D6" t="n">
         <v>170</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Boeing</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/analytikI/lety.xlsx
+++ b/analytikI/lety.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +442,11 @@
           <t>pocet_pasazierov</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>typ_lietadla</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,6 +467,11 @@
       <c r="D2" t="n">
         <v>150</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Airbus A320</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -482,6 +492,11 @@
       <c r="D3" t="n">
         <v>200</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Airbus A320</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,6 +517,11 @@
       <c r="D4" t="n">
         <v>180</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Boeing 737</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -522,6 +542,11 @@
       <c r="D5" t="n">
         <v>220</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Boeing 737</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -541,6 +566,11 @@
       </c>
       <c r="D6" t="n">
         <v>170</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Boeing 737</t>
+        </is>
       </c>
     </row>
   </sheetData>
